--- a/画面項目定義/res-チェック.xlsx
+++ b/画面項目定義/res-チェック.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81707\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\k022c0080\グループ演習\group_project\画面項目定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F02979A9-4D80-439D-8A58-E2DA6694E6D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D196AE90-247B-413C-9244-076751A18AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F6AD084C-8714-4B1F-8E85-96FCCB1BC91E}"/>
+    <workbookView xWindow="705" yWindow="705" windowWidth="13583" windowHeight="12600" xr2:uid="{F6AD084C-8714-4B1F-8E85-96FCCB1BC91E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,22 +80,6 @@
     <t>ホテルメインページに戻るリンク</t>
   </si>
   <si>
-    <r>
-      <t>hotel.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> に遷移</t>
-    </r>
-  </si>
-  <si>
     <t>日付選択</t>
   </si>
   <si>
@@ -224,6 +208,10 @@
   </si>
   <si>
     <t>各予約情報のチェックアウト時間を表示</t>
+  </si>
+  <si>
+    <t>ホテル情報更新メイン に遷移</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -294,7 +282,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -633,13 +621,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01931A06-B0EF-4314-8618-93BDC3D11E3A}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="36">
+    <row r="1" spans="1:6" ht="35.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -659,7 +647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="54">
+    <row r="2" spans="1:6" ht="52.9">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -679,7 +667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="72">
+    <row r="3" spans="1:6" ht="70.5">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -696,52 +684,52 @@
         <v>8</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="88.15">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="90">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="88.15">
+      <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="90">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="52.9">
+      <c r="A6" s="2" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="54">
-      <c r="A6" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
@@ -750,18 +738,18 @@
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="70.5">
+      <c r="A7" s="2" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="72">
-      <c r="A7" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
@@ -770,18 +758,18 @@
         <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:6" ht="70.5">
+      <c r="A8" s="2" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="72">
-      <c r="A8" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
@@ -790,18 +778,18 @@
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:6" ht="88.15">
+      <c r="A9" s="2" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="90">
-      <c r="A9" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>7</v>
@@ -810,18 +798,18 @@
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:6" ht="88.15">
+      <c r="A10" s="2" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="90">
-      <c r="A10" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>7</v>
@@ -830,13 +818,13 @@
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/画面項目定義/res-チェック.xlsx
+++ b/画面項目定義/res-チェック.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\k022c0080\グループ演習\group_project\画面項目定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D196AE90-247B-413C-9244-076751A18AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692B9F33-E28D-4671-BEEB-976040B9BC3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="705" yWindow="705" windowWidth="13583" windowHeight="12600" xr2:uid="{F6AD084C-8714-4B1F-8E85-96FCCB1BC91E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{F6AD084C-8714-4B1F-8E85-96FCCB1BC91E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,9 +107,6 @@
     <t>サーバーから取得したデータの形式確認</t>
   </si>
   <si>
-    <t>取得したデータを表形式で表示</t>
-  </si>
-  <si>
     <t>テーブル列（予約ID）</t>
   </si>
   <si>
@@ -211,6 +208,10 @@
   </si>
   <si>
     <t>ホテル情報更新メイン に遷移</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>取得したデータを表形式で表示</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -272,7 +273,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -280,9 +281,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -622,7 +620,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -683,8 +681,8 @@
       <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>39</v>
+      <c r="F3" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="88.15">
@@ -724,12 +722,12 @@
         <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="52.9">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
@@ -738,18 +736,18 @@
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="70.5">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
@@ -758,18 +756,18 @@
         <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="70.5">
       <c r="A8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
@@ -778,18 +776,18 @@
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="88.15">
       <c r="A9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>7</v>
@@ -798,18 +796,18 @@
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="88.15">
       <c r="A10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>7</v>
@@ -818,13 +816,13 @@
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
